--- a/LeetCodeDB_all_problems.xlsx
+++ b/LeetCodeDB_all_problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>Number of Comments per Post </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V1</t>
   </si>
 </sst>
 </file>
@@ -617,16 +626,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,8 +653,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
@@ -656,8 +670,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176</v>
       </c>
@@ -670,8 +687,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>177</v>
       </c>
@@ -684,8 +704,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>178</v>
       </c>
@@ -699,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>180</v>
       </c>
@@ -713,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>181</v>
       </c>
@@ -727,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>182</v>
       </c>
@@ -741,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>183</v>
       </c>
@@ -755,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>184</v>
       </c>
@@ -769,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>185</v>
       </c>
@@ -783,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>196</v>
       </c>
@@ -797,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>197</v>
       </c>
@@ -811,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>262</v>
       </c>
@@ -825,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>511</v>
       </c>
@@ -839,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>512</v>
       </c>

--- a/LeetCodeDB_all_problems.xlsx
+++ b/LeetCodeDB_all_problems.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -305,7 +308,10 @@
     <t>X</t>
   </si>
   <si>
-    <t>V1</t>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
   </si>
 </sst>
 </file>
@@ -340,11 +346,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,6 +371,844 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pei ZHANG" refreshedDate="43773.700539583333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="83">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E84" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="#" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="175" maxValue="1241"/>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems count="83">
+        <s v="Combine Two Tables    "/>
+        <s v="Second Highest Salary    "/>
+        <s v="Nth Highest Salary    "/>
+        <s v="Rank Scores    "/>
+        <s v="Consecutive Numbers    "/>
+        <s v="Employees Earning More Than Their Managers    "/>
+        <s v="Duplicate Emails    "/>
+        <s v="Customers Who Never Order    "/>
+        <s v="Department Highest Salary    "/>
+        <s v="Department Top Three Salaries    "/>
+        <s v="Delete Duplicate Emails    "/>
+        <s v="Rising Temperature    "/>
+        <s v="Trips and Users    "/>
+        <s v="Game Play Analysis I    "/>
+        <s v="Game Play Analysis II    "/>
+        <s v="Game Play Analysis III    "/>
+        <s v="Game Play Analysis IV    "/>
+        <s v="Median Employee Salary    "/>
+        <s v="Managers with at Least 5 Direct Reports    "/>
+        <s v="Find Median Given Frequency of Numbers    "/>
+        <s v="Winning Candidate    "/>
+        <s v="Employee Bonus    "/>
+        <s v="Get Highest Answer Rate Question    "/>
+        <s v="Find Cumulative Salary of an Employee    "/>
+        <s v="Count Student Number in Departments    "/>
+        <s v="Find Customer Referee    "/>
+        <s v="Investments in 2016    "/>
+        <s v="Customer Placing the Largest Number of Orders    "/>
+        <s v="Big Countries    "/>
+        <s v="Classes More Than 5 Students    "/>
+        <s v="Friend Requests I: Overall Acceptance Rate    "/>
+        <s v="Human Traffic of Stadium    "/>
+        <s v="Friend Requests II: Who Has the Most Friends    "/>
+        <s v="Consecutive Available Seats    "/>
+        <s v="Sales Person    "/>
+        <s v="Tree Node    "/>
+        <s v="Triangle Judgement    "/>
+        <s v="Shortest Distance in a Plane    "/>
+        <s v="Shortest Distance in a Line    "/>
+        <s v="Second Degree Follower    "/>
+        <s v="Average Salary: Departments VS Company    "/>
+        <s v="Students Report By Geography    "/>
+        <s v="Biggest Single Number    "/>
+        <s v="Not Boring Movies    "/>
+        <s v="Exchange Seats    "/>
+        <s v="Swap Salary    "/>
+        <s v="Customers Who Bought All Products    "/>
+        <s v="Actors and Directors Who Cooperated At Least Three Times    "/>
+        <s v="Product Sales Analysis I    "/>
+        <s v="Product Sales Analysis II    "/>
+        <s v="Product Sales Analysis III    "/>
+        <s v="Project Employees I    "/>
+        <s v="Project Employees II    "/>
+        <s v="Project Employees III    "/>
+        <s v="Sales Analysis I    "/>
+        <s v="Sales Analysis II    "/>
+        <s v="Sales Analysis III    "/>
+        <s v="Game Play Analysis V    "/>
+        <s v="Unpopular Books    "/>
+        <s v="New Users Daily Count    "/>
+        <s v="Highest Grade For Each Student    "/>
+        <s v="Reported Posts    "/>
+        <s v="Active Businesses    "/>
+        <s v="User Purchase Platform    "/>
+        <s v="Reported Posts II    "/>
+        <s v="User Activity for the Past 30 Days I    "/>
+        <s v="User Activity for the Past 30 Days II    "/>
+        <s v="Article Views I    "/>
+        <s v="Article Views II    "/>
+        <s v="Market Analysis I    "/>
+        <s v="Market Analysis II    "/>
+        <s v="Product Price at a Given Date    "/>
+        <s v="Immediate Food Delivery I    "/>
+        <s v="Immediate Food Delivery II    "/>
+        <s v="Reformat Department Table    "/>
+        <s v="Monthly Transactions I    "/>
+        <s v="Tournament Winners    "/>
+        <s v="Last Person to Fit in the Elevator    "/>
+        <s v="Monthly Transactions II    "/>
+        <s v="Queries Quality and Percentage    "/>
+        <s v="Team Scores in Football Tournament    "/>
+        <s v="Report Contiguous Dates    "/>
+        <s v="Number of Comments per Post "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Solution" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acceptance" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.245" maxValue="0.83299999999999996"/>
+    </cacheField>
+    <cacheField name="Difficulty" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Easy"/>
+        <s v="Medium"/>
+        <s v="Hard"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="83">
+  <r>
+    <n v="175"/>
+    <x v="0"/>
+    <m/>
+    <n v="0.55200000000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="1"/>
+    <m/>
+    <n v="0.28899999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="2"/>
+    <m/>
+    <n v="0.28399999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="3"/>
+    <m/>
+    <n v="0.39700000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="4"/>
+    <m/>
+    <n v="0.35799999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="5"/>
+    <m/>
+    <n v="0.51400000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="6"/>
+    <m/>
+    <n v="0.57599999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="7"/>
+    <m/>
+    <n v="0.47699999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="8"/>
+    <m/>
+    <n v="0.317"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="9"/>
+    <m/>
+    <n v="0.29199999999999998"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="10"/>
+    <m/>
+    <n v="0.35899999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="11"/>
+    <m/>
+    <n v="0.36299999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <x v="12"/>
+    <m/>
+    <n v="0.27400000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="511"/>
+    <x v="13"/>
+    <m/>
+    <n v="0.75900000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <x v="14"/>
+    <m/>
+    <n v="0.54500000000000004"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="534"/>
+    <x v="15"/>
+    <m/>
+    <n v="0.68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="550"/>
+    <x v="16"/>
+    <m/>
+    <n v="0.441"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="569"/>
+    <x v="17"/>
+    <m/>
+    <n v="0.50900000000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="570"/>
+    <x v="18"/>
+    <m/>
+    <n v="0.63900000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="571"/>
+    <x v="19"/>
+    <m/>
+    <n v="0.45700000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="574"/>
+    <x v="20"/>
+    <m/>
+    <n v="0.38200000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="577"/>
+    <x v="21"/>
+    <m/>
+    <n v="0.62"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="578"/>
+    <x v="22"/>
+    <m/>
+    <n v="0.35699999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="579"/>
+    <x v="23"/>
+    <m/>
+    <n v="0.35"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="580"/>
+    <x v="24"/>
+    <m/>
+    <n v="0.442"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="584"/>
+    <x v="25"/>
+    <m/>
+    <n v="0.68799999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="585"/>
+    <x v="26"/>
+    <m/>
+    <n v="0.497"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="586"/>
+    <x v="27"/>
+    <m/>
+    <n v="0.68500000000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="595"/>
+    <x v="28"/>
+    <m/>
+    <n v="0.751"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="596"/>
+    <x v="29"/>
+    <m/>
+    <n v="0.36699999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="597"/>
+    <x v="30"/>
+    <m/>
+    <n v="0.40400000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="601"/>
+    <x v="31"/>
+    <m/>
+    <n v="0.38200000000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="602"/>
+    <x v="32"/>
+    <m/>
+    <n v="0.46700000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="603"/>
+    <x v="33"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="607"/>
+    <x v="34"/>
+    <m/>
+    <n v="0.59"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="608"/>
+    <x v="35"/>
+    <m/>
+    <n v="0.61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="610"/>
+    <x v="36"/>
+    <m/>
+    <n v="0.622"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="612"/>
+    <x v="37"/>
+    <m/>
+    <n v="0.56100000000000005"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="613"/>
+    <x v="38"/>
+    <m/>
+    <n v="0.74199999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="614"/>
+    <x v="39"/>
+    <m/>
+    <n v="0.245"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="615"/>
+    <x v="40"/>
+    <m/>
+    <n v="0.40200000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="618"/>
+    <x v="41"/>
+    <m/>
+    <n v="0.45700000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="619"/>
+    <x v="42"/>
+    <m/>
+    <n v="0.40100000000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="620"/>
+    <x v="43"/>
+    <m/>
+    <n v="0.63500000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="626"/>
+    <x v="44"/>
+    <m/>
+    <n v="0.56699999999999995"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="627"/>
+    <x v="45"/>
+    <m/>
+    <n v="0.71399999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1045"/>
+    <x v="46"/>
+    <m/>
+    <n v="0.66900000000000004"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1050"/>
+    <x v="47"/>
+    <m/>
+    <n v="0.71299999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1068"/>
+    <x v="48"/>
+    <m/>
+    <n v="0.83299999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1069"/>
+    <x v="49"/>
+    <m/>
+    <n v="0.81599999999999995"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1070"/>
+    <x v="50"/>
+    <m/>
+    <n v="0.46100000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1075"/>
+    <x v="51"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1076"/>
+    <x v="52"/>
+    <m/>
+    <n v="0.52700000000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1077"/>
+    <x v="53"/>
+    <m/>
+    <n v="0.70499999999999996"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1082"/>
+    <x v="54"/>
+    <m/>
+    <n v="0.70399999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1083"/>
+    <x v="55"/>
+    <m/>
+    <n v="0.51"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1084"/>
+    <x v="56"/>
+    <m/>
+    <n v="0.53"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1097"/>
+    <x v="57"/>
+    <m/>
+    <n v="0.501"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1098"/>
+    <x v="58"/>
+    <m/>
+    <n v="0.42199999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1107"/>
+    <x v="59"/>
+    <m/>
+    <n v="0.43099999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1112"/>
+    <x v="60"/>
+    <m/>
+    <n v="0.622"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1113"/>
+    <x v="61"/>
+    <m/>
+    <n v="0.59799999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1126"/>
+    <x v="62"/>
+    <m/>
+    <n v="0.70199999999999996"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1127"/>
+    <x v="63"/>
+    <m/>
+    <n v="0.45800000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1132"/>
+    <x v="64"/>
+    <m/>
+    <n v="0.34300000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1141"/>
+    <x v="65"/>
+    <m/>
+    <n v="0.53500000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1142"/>
+    <x v="66"/>
+    <m/>
+    <n v="0.35399999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1148"/>
+    <x v="67"/>
+    <m/>
+    <n v="0.70899999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1149"/>
+    <x v="68"/>
+    <m/>
+    <n v="0.47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1158"/>
+    <x v="69"/>
+    <m/>
+    <n v="0.51500000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1159"/>
+    <x v="70"/>
+    <m/>
+    <n v="0.49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1164"/>
+    <x v="71"/>
+    <m/>
+    <n v="0.59699999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1173"/>
+    <x v="72"/>
+    <m/>
+    <n v="0.74199999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1174"/>
+    <x v="73"/>
+    <m/>
+    <n v="0.53900000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1179"/>
+    <x v="74"/>
+    <m/>
+    <n v="0.71499999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1193"/>
+    <x v="75"/>
+    <m/>
+    <n v="0.626"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1194"/>
+    <x v="76"/>
+    <m/>
+    <n v="0.53600000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1204"/>
+    <x v="77"/>
+    <m/>
+    <n v="0.67500000000000004"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1205"/>
+    <x v="78"/>
+    <m/>
+    <n v="0.47499999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1211"/>
+    <x v="79"/>
+    <m/>
+    <n v="0.66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1212"/>
+    <x v="80"/>
+    <m/>
+    <n v="0.53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1225"/>
+    <x v="81"/>
+    <m/>
+    <n v="0.61099999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1241"/>
+    <x v="82"/>
+    <m/>
+    <n v="0.72099999999999997"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="84">
+        <item x="62"/>
+        <item x="47"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="42"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="46"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="57"/>
+        <item x="22"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="26"/>
+        <item x="77"/>
+        <item x="18"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="17"/>
+        <item x="75"/>
+        <item x="78"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="2"/>
+        <item x="82"/>
+        <item x="71"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="79"/>
+        <item x="3"/>
+        <item x="74"/>
+        <item x="81"/>
+        <item x="64"/>
+        <item x="61"/>
+        <item x="11"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="41"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="76"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="12"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="63"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,18 +1474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,8 +1507,11 @@
       <c r="F1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
@@ -673,8 +1527,11 @@
       <c r="F2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176</v>
       </c>
@@ -690,8 +1547,11 @@
       <c r="F3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>177</v>
       </c>
@@ -705,10 +1565,13 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>178</v>
       </c>
@@ -721,8 +1584,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>180</v>
       </c>
@@ -736,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>181</v>
       </c>
@@ -750,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>182</v>
       </c>
@@ -764,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>183</v>
       </c>
@@ -778,7 +1644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>184</v>
       </c>
@@ -792,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>185</v>
       </c>
@@ -806,7 +1672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>196</v>
       </c>
@@ -820,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>197</v>
       </c>
@@ -834,7 +1700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>262</v>
       </c>
@@ -848,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>511</v>
       </c>
@@ -862,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>512</v>
       </c>

--- a/LeetCodeDB_all_problems.xlsx
+++ b/LeetCodeDB_all_problems.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1584,6 +1584,9 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>94</v>
       </c>
@@ -1601,6 +1604,9 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1614,6 +1620,9 @@
       </c>
       <c r="E7" t="s">
         <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
